--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-04_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-04_end.xlsx
@@ -1508,7 +1508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="We only sent five teams? ", values="1")]
+    <t xml:space="preserve">[Decision(options="We only sent five teams? ", values="1")]
 </t>
   </si>
   <si>
@@ -1556,7 +1556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="So why do they need us? ", values="1")]
+    <t xml:space="preserve">[Decision(options="So why do they need us? ", values="1")]
 </t>
   </si>
   <si>
@@ -1788,7 +1788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I won’t forget. I definitely won’t forget a single death. 
+    <t xml:space="preserve">[name="Rosmontis"]  I won’t forget. I definitely won’t forget a single death. 
 </t>
   </si>
   <si>
@@ -2136,11 +2136,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Seize your own fate next time, Dr. {@nickname}. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sandstorm was ferocious, and the “arm” holding you was very hard. You couldn’t be certain it belonged to Kal'tsit.
+    <t xml:space="preserve">[name="Kal'tsit"]  Seize your own fate next time, Dr. {@nickname}. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sandstorm was ferocious, and the 'arm' holding you was very hard. You couldn’t be certain it belonged to Kal'tsit.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-04_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-04_end.xlsx
@@ -1476,15 +1476,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="We won’t have much time after we take out that recon team.", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You’re right. We’re on a tight schedule.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="The operators aren’t going to climb into the city from the sand.", values="1")]
+    <t xml:space="preserve">[Decision(options="We won't have much time after we take out that recon team.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You're right. We're on a tight schedule.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="The operators aren't going to climb into the city from the sand.", values="1")]
 </t>
   </si>
   <si>
@@ -1500,7 +1500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  If they can’t open the maintenance hatches and waste chutes on the underside, our distraction and our camouflage won’t be worth anything.
+    <t xml:space="preserve">[name="Kal'tsit"]  If they can't open the maintenance hatches and waste chutes on the underside, our distraction and our camouflage won't be worth anything.
 </t>
   </si>
   <si>
@@ -1512,15 +1512,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We’re in no hurry to get the attention of the local Ursus brass.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  And we wouldn’t want them to send out an attack ship to smash Rhodes Island in the wilderness and kill our employees.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Even if they did that, you wouldn’t see a single report on it in any newspaper. The bankers and insurance executives will quietly cross out your name and shove all the lucre into their own nest eggs.
+    <t xml:space="preserve">[name="Kal'tsit"]  We're in no hurry to get the attention of the local Ursus brass.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  And we wouldn't want them to send out an attack ship to smash Rhodes Island in the wilderness and kill our employees.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even if they did that, you wouldn't see a single report on it in any newspaper. The bankers and insurance executives will quietly cross out your name and shove all the lucre into their own nest eggs.
 </t>
   </si>
   <si>
@@ -1528,7 +1528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Our neutrality gives us some freedom to move in the cracks between forces, and that means we can’t be backed by any power.
+    <t xml:space="preserve">[name="Kal'tsit"]  Our neutrality gives us some freedom to move in the cracks between forces, and that means we can't be backed by any power.
 </t>
   </si>
   <si>
@@ -1540,7 +1540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="But more teams means more firepower!;......;Even if they’re not enough?", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="But more teams means more firepower!;......;Even if they're not enough?", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1552,7 +1552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You saw the L.G.D. They’re as strong as any country’s special forces. They certainly have a pharmaceutical company beat.
+    <t xml:space="preserve">[name="Kal'tsit"]  You saw the L.G.D. They're as strong as any country's special forces. They certainly have a pharmaceutical company beat.
 </t>
   </si>
   <si>
@@ -1564,23 +1564,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Rhodes Island has departed Lungmen, and we’re bearing on the next trade port at fifteen kilometers per hour.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We’ll be in the wilderness for a few weeks before we get there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Aside from some nearby Rhodes Island communications specialists and some trusted vessels, no one will pick up our signal. We’ll plot a course around all the nomadic cities’ known paths.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Even if Lungmen decides to betray us, they won’t be able to find us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="But that’s not enough, is it?", values="1")]
+    <t xml:space="preserve">[name="Kal'tsit"]  Rhodes Island has departed Lungmen, and we're bearing on the next trade port at fifteen kilometers per hour.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We'll be in the wilderness for a few weeks before we get there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Aside from some nearby Rhodes Island communications specialists and some trusted vessels, no one will pick up our signal. We'll plot a course around all the nomadic cities' known paths.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even if Lungmen decides to betray us, they won't be able to find us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="But that's not enough, is it?", values="1")]
 </t>
   </si>
   <si>
@@ -1600,7 +1600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I know how serious this is, but you don’t have to... smile like that, do you?
+    <t xml:space="preserve">[name="Amiya"]  I know how serious this is, but you don't have to... smile like that, do you?
 </t>
   </si>
   <si>
@@ -1624,7 +1624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Heh. The feeling is mutual.;......;You may be forgetting there’s two sides to this.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="Heh. The feeling is mutual.;......;You may be forgetting there's two sides to this.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1652,7 +1652,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  You’re badly wounded. Why are you here? You should go back. Go on.
+    <t xml:space="preserve">[name="Rosmontis"]  You're badly wounded. Why are you here? You should go back. Go on.
 </t>
   </si>
   <si>
@@ -1664,27 +1664,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  I’ll get someone to replace you. How about Misery? He’s better at assault ops than you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  He’ll wave his hand and it’ll be all done. Let’s have him go.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  You don’t want me to go?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  Yeah. You shouldn’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  You’re giving me a weird feeling, Blaze.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  This isn’t like the missions you went on before!
+    <t xml:space="preserve">[name="Blaze"]  I'll get someone to replace you. How about Misery? He's better at assault ops than you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  He'll wave his hand and it'll be all done. Let's have him go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  You don't want me to go?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Yeah. You shouldn't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  You're giving me a weird feeling, Blaze.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  This isn't like the missions you went on before!
 </t>
   </si>
   <si>
@@ -1696,23 +1696,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  You can’t just... like... you can’t just come out and say it like that!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  You’re too young for such a dangerous mission. It’s not right!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  But Amiya’s going too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  That’s because she...! She’s...!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  She’s...
+    <t xml:space="preserve">[name="Blaze"]  You can't just... like... you can't just come out and say it like that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  You're too young for such a dangerous mission. It's not right!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  But Amiya's going too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  That's because she...! She's...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  She's...
 </t>
   </si>
   <si>
@@ -1720,19 +1720,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  She’s just like me. She’s Infected. She’s an operator.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  And I checked the logs. Ace and Scout are both in Chernobog. They didn’t come back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  That means they’re gone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I want to see. I want to know what happened. I want to see who’s running Reunion. I want to know who did what.
+    <t xml:space="preserve">[name="Rosmontis"]  She's just like me. She's Infected. She's an operator.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  And I checked the logs. Ace and Scout are both in Chernobog. They didn't come back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  That means they're gone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I want to see. I want to know what happened. I want to see who's running Reunion. I want to know who did what.
 </t>
   </si>
   <si>
@@ -1740,7 +1740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  Rosmontis? You don’t have to record... that kind of stuff.
+    <t xml:space="preserve">[name="Blaze"]  Rosmontis? You don't have to record... that kind of stuff.
 </t>
   </si>
   <si>
@@ -1752,7 +1752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  No, sorry, I shouldn’t have said that. Damn my big mouth!
+    <t xml:space="preserve">[name="Blaze"]  No, sorry, I shouldn't have said that. Damn my big mouth!
 </t>
   </si>
   <si>
@@ -1764,39 +1764,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  I’m the one who’s wrong. We have happy memories, and painful ones too. You have to remember them both.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  You’re weird, Blaze. Your words are all scattered and broken.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  ...I don’t want to see you hurting so much. Why do you have to look back at them? You... you can let go of those memories.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  You can put them there, leave them there, and don’t look back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  If I don’t look... then what’s the point in recording them?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  If I don’t look... then they’re forgotten.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I won’t forget. I definitely won’t forget a single death. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  Ha. Right. You’re like me. You’re a Rhodes Island elite operator.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  I can’t go in your place. Really, I...
+    <t xml:space="preserve">[name="Blaze"]  I'm the one who's wrong. We have happy memories, and painful ones too. You have to remember them both.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  You're weird, Blaze. Your words are all scattered and broken.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  ...I don't want to see you hurting so much. Why do you have to look back at them? You... you can let go of those memories.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  You can put them there, leave them there, and don't look back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  If I don't look... then what's the point in recording them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  If I don't look... then they're forgotten.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I won't forget. I definitely won't forget a single death. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Ha. Right. You're like me. You're a Rhodes Island elite operator.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  I can't go in your place. Really, I...
 </t>
   </si>
   <si>
@@ -1804,15 +1804,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  You’re bleeding again?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  It’s fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I’ll take you.
+    <t xml:space="preserve">[name="Rosmontis"]  You're bleeding again?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  It's fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I'll take you.
 </t>
   </si>
   <si>
@@ -1836,7 +1836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Rhodes Island’s elite operators, for whatever reason, dedicate their talent and energy to the Rhodes Island project.
+    <t xml:space="preserve">[name="Amiya"]  Rhodes Island's elite operators, for whatever reason, dedicate their talent and energy to the Rhodes Island project.
 </t>
   </si>
   <si>
@@ -1848,7 +1848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  You’ve met Elite Operator Blaze, Doctor. There are a lot of rumors about her, maybe you haven’t heard. The truth is, they’re a little exaggerated.
+    <t xml:space="preserve">[name="Amiya"]  You've met Elite Operator Blaze, Doctor. There are a lot of rumors about her, maybe you haven't heard. The truth is, they're a little exaggerated.
 </t>
   </si>
   <si>
@@ -1856,7 +1856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  But Doctor, I think... I think you’re capable of understanding her choices.
+    <t xml:space="preserve">[name="Amiya"]  But Doctor, I think... I think you're capable of understanding her choices.
 </t>
   </si>
   <si>
@@ -1864,7 +1864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Judging by your reaction, you may have already met the one we’re talking about.
+    <t xml:space="preserve">[name="Kal'tsit"]  Judging by your reaction, you may have already met the one we're talking about.
 </t>
   </si>
   <si>
@@ -1872,7 +1872,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Then... we’re okay?
+    <t xml:space="preserve">[name="Amiya"]  Then... we're okay?
 </t>
   </si>
   <si>
@@ -1880,7 +1880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  That’s the basic plan. Honestly, um... it’s practical. A plan’s a plan, an operation's an operation.
+    <t xml:space="preserve">[name="Amiya"]  That's the basic plan. Honestly, um... it's practical. A plan's a plan, an operation's an operation.
 </t>
   </si>
   <si>
@@ -1888,23 +1888,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I hope we don’t have any bad omen specialists here.", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Engineering Operator"]  Uh oh... that ain’t good! We have a problem!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Engineering Operator"]  Dust density is still too low. This isn’t going to work with that light angle.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Engineering Operator"]  We're in the open here! If they look down from the bridge, they might spot us before we’re fully operational!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  But we can’t cover the machine any more than it already is. If we block the airflow, we won’t get enough of a current going to kick up the dust!
+    <t xml:space="preserve">[Decision(options="I hope we don't have any bad omen specialists here.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Engineering Operator"]  Uh oh... that ain't good! We have a problem!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Engineering Operator"]  Dust density is still too low. This isn't going to work with that light angle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Engineering Operator"]  We're in the open here! If they look down from the bridge, they might spot us before we're fully operational!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  But we can't cover the machine any more than it already is. If we block the airflow, we won't get enough of a current going to kick up the dust!
 </t>
   </si>
   <si>
@@ -1912,7 +1912,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]  ...I’ll take care of it.
+    <t xml:space="preserve">[name="Nearl"]  ...I'll take care of it.
 </t>
   </si>
   <si>
@@ -1932,15 +1932,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Oh? Who’s that on the dune? Nearl? They’re not saddling up and not falling back?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  What’s she doing? Meditating? Posing... is she posing here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  ...No, wait, what’s that light? Her whole body is glowing... No, uh oh! Too bright!
+    <t xml:space="preserve">[name="Elysium"]  Oh? Who's that on the dune? Nearl? They're not saddling up and not falling back?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  What's she doing? Meditating? Posing... is she posing here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  ...No, wait, what's that light? Her whole body is glowing... No, uh oh! Too bright!
 </t>
   </si>
   <si>
@@ -1948,7 +1948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  Thanks for covering my eyes, but it would be great if you weren’t squeezing like you wanted to crush my skull.
+    <t xml:space="preserve">[name="Elysium"]  Thanks for covering my eyes, but it would be great if you weren't squeezing like you wanted to crush my skull.
 </t>
   </si>
   <si>
@@ -1956,11 +1956,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  She’s okay? Well... you say that, Captain, but that light is brighter than the sun. What is she up to?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Elysium"]  Huh? No way... she’s pulling in all the light around us?
+    <t xml:space="preserve">[name="Elysium"]  She's okay? Well... you say that, Captain, but that light is brighter than the sun. What is she up to?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Huh? No way... she's pulling in all the light around us?
 </t>
   </si>
   <si>
@@ -1972,7 +1972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  I know. I’m just saying, could anyone but the Radiant Knight do something like this?
+    <t xml:space="preserve">[name="Elysium"]  I know. I'm just saying, could anyone but the Radiant Knight do something like this?
 </t>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Elysium"]  *Sigh*... I’m just trying to brighten the mood here. And once we kick up that sandstorm, we won’t be able to see the shadows, right?
+    <t xml:space="preserve">[name="Elysium"]  *Sigh*... I'm just trying to brighten the mood here. And once we kick up that sandstorm, we won't be able to see the shadows, right?
 </t>
   </si>
   <si>
@@ -1988,15 +1988,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]  Take us up! We’ve got some weird-colored balls clipping us!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Pilot"]  Don’t be scared, Instructor. Reunion casters aren’t good enough to shoot us down.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  We’re just a distraction, no need to put on an air show for Reunion!
+    <t xml:space="preserve">[name="Dobermann"]  Take us up! We've got some weird-colored balls clipping us!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Don't be scared, Instructor. Reunion casters aren't good enough to shoot us down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  We're just a distraction, no need to put on an air show for Reunion!
 </t>
   </si>
   <si>
@@ -2004,11 +2004,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Pilot"]  Isn’t that what they call a show of force?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  Aerial acrobatics isn’t a show of force!
+    <t xml:space="preserve">[name="Pilot"]  Isn't that what they call a show of force?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  Aerial acrobatics isn't a show of force!
 </t>
   </si>
   <si>
@@ -2020,7 +2020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]  The device is fully functional! Amiya, we’re ready to move!
+    <t xml:space="preserve">[name="Nearl"]  The device is fully functional! Amiya, we're ready to move!
 </t>
   </si>
   <si>
@@ -2028,11 +2028,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Drivers, maintain a steady speed! Check your maps. Use the sandstorm to cover your approach to the core city until you’re in range to deploy boarding gear! Engage!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  The sand will cover our tracks. Remember your protective gear, and don’t let sand into our sensitive equipment!
+    <t xml:space="preserve">[name="Kal'tsit"]  Drivers, maintain a steady speed! Check your maps. Use the sandstorm to cover your approach to the core city until you're in range to deploy boarding gear! Engage!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The sand will cover our tracks. Remember your protective gear, and don't let sand into our sensitive equipment!
 </t>
   </si>
   <si>
@@ -2040,15 +2040,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  The underside of the core city is so clear, it’s like... Arts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  This wasn’t... part of the plan. Is that natural light?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  ...Don’t worry about it!
+    <t xml:space="preserve">[name="Amiya"]  The underside of the core city is so clear, it's like... Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  This wasn't... part of the plan. Is that natural light?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  ...Don't worry about it!
 </t>
   </si>
   <si>
@@ -2056,7 +2056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Once all our operators are aboard, the vehicles will depart at once! I don’t usually say things like this, but I’m pretty sure that light just now is a good omen for us!
+    <t xml:space="preserve">[name="Amiya"]  Once all our operators are aboard, the vehicles will depart at once! I don't usually say things like this, but I'm pretty sure that light just now is a good omen for us!
 </t>
   </si>
   <si>
@@ -2064,7 +2064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]  (I made it a little too intense and had to aim it at the ground, but let’s not tell her that part...)
+    <t xml:space="preserve">[name="Nearl"]  (I made it a little too intense and had to aim it at the ground, but let's not tell her that part...)
 </t>
   </si>
   <si>
@@ -2072,7 +2072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]  Our machines are wind-driven, but they can only keep the sandstorm up within a one kilometer range! If they break that range, they’ll spot us for sure!
+    <t xml:space="preserve">[name="Nearl"]  Our machines are wind-driven, but they can only keep the sandstorm up within a one kilometer range! If they break that range, they'll spot us for sure!
 </t>
   </si>
   <si>
@@ -2080,11 +2080,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Pilot"]  We’re out of time! We have to slow down!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Pilot"]  If we drive out of the sandstorm,, Chernobog’s optical detection system will pick us right up and blow the whole op!
+    <t xml:space="preserve">[name="Pilot"]  We're out of time! We have to slow down!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  If we drive out of the sandstorm,, Chernobog's optical detection system will pick us right up and blow the whole op!
 </t>
   </si>
   <si>
@@ -2092,7 +2092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="There aren’t any left.", values="1")]
+    <t xml:space="preserve">[Decision(options="There aren't any left.", values="1")]
 </t>
   </si>
   <si>
@@ -2100,19 +2100,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I’ll do it myself!;(Silently put on a dust mask);Pass me the carabiner. I’m going myself.", values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Pilot"]  It’s too dangerous, Doctor!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Pilot"]  You’ve never had operator training! We can’t send you up there alone!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Pilot"]  Didn’t Dr. Kal'tsit assign you any battlefield support?
+    <t xml:space="preserve">[Decision(options="I'll do it myself!;(Silently put on a dust mask);Pass me the carabiner. I'm going myself.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  It's too dangerous, Doctor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  You've never had operator training! We can't send you up there alone!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Didn't Dr. Kal'tsit assign you any battlefield support?
 </t>
   </si>
   <si>
@@ -2140,7 +2140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The sandstorm was ferocious, and the 'arm' holding you was very hard. You couldn’t be certain it belonged to Kal'tsit.
+    <t xml:space="preserve">The sandstorm was ferocious, and the 'arm' holding you was very hard. You couldn't be certain it belonged to Kal'tsit.
 </t>
   </si>
   <si>
@@ -2164,11 +2164,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  We can’t be sure if that bloodstain over there is Reunion’s or someone else’s. It hasn’t turned yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  It very well could be Officer Ch’en’s! We have to hurry.
+    <t xml:space="preserve">[name="Amiya"]  We can't be sure if that bloodstain over there is Reunion's or someone else's. It hasn't turned yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It very well could be Officer Ch'en's! We have to hurry.
 </t>
   </si>
   <si>
@@ -2176,7 +2176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I’m glad you made it here safe.
+    <t xml:space="preserve">[name="Amiya"]  I'm glad you made it here safe.
 </t>
   </si>
   <si>
@@ -2192,7 +2192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I’m fine. Let’s go. Just some psychological trauma.", values="1")]
+    <t xml:space="preserve">[Decision(options="I'm fine. Let's go. Just some psychological trauma.", values="1")]
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-04_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-04_end.xlsx
@@ -2212,7 +2212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  하지만 코어가 이동 중이니, 확실히 아래 쪽의 기반 시설로 진입하기는 쉽지 않겠네요.
+    <t xml:space="preserve">[name="아미야"]  하지만 코어가 이동 중이니, 확실히 아래 쪽의 기반시설로 진입하기는 쉽지 않겠네요.
 </t>
   </si>
   <si>
